--- a/src/Verkaufskalkulation.xlsx
+++ b/src/Verkaufskalkulation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.BS14.025\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.BS14.030\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Anbieter</t>
   </si>
   <si>
-    <t>Anbieter A</t>
-  </si>
-  <si>
     <t>+ Umsatzsteuer</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>+ Gewinn</t>
+  </si>
+  <si>
+    <t>Sony Xperia Z SGP312</t>
   </si>
 </sst>
 </file>
@@ -228,12 +228,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -242,30 +266,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -550,7 +550,7 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,248 +562,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21"/>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>21980.23</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="4">
         <f>D4*(1+D5)</f>
-        <v>0</v>
+        <v>24178.253000000001</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="20">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="4">
         <f>D6/(1-D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>26864.725555555557</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="20">
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="4">
         <f>D8/(1-D9)</f>
-        <v>0</v>
+        <v>27695.593356242844</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="21">
+      <c r="B11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="4">
         <f>D10/(1-D11)</f>
-        <v>0</v>
+        <v>29153.256164466151</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="20">
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="6">
         <v>0.19</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="22">
+      <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="8">
         <f>D12*(1+D13)</f>
-        <v>0</v>
+        <v>34692.37483571472</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -820,21 +835,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
